--- a/data/test_reader.xlsx
+++ b/data/test_reader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\audit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC09E86-F685-462E-8B76-84489DCEC4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06324A0B-3259-4857-A615-160531FE3A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5508" yWindow="4224" windowWidth="23040" windowHeight="12120" xr2:uid="{BB8811DA-A29F-42C1-BDE9-8F6A22F33ABE}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="B1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
